--- a/data/trans_orig/IP1004-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1004-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C170AD37-23C0-4141-9D67-03A64CC18690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85FAA4D0-7ED8-4372-9DA0-72A2087F511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{19DD0011-BC75-48BB-B339-8A6E18475DC3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1CFE9E8F-D90A-430D-B5EB-B89DE6CB74B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,12 +67,81 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>98,78%</t>
   </si>
   <si>
@@ -82,27 +151,15 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
     <t>98,33%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>1,22%</t>
   </si>
   <si>
@@ -112,49 +169,46 @@
     <t>2,96%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>0,17%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -184,60 +238,6 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
     <t>98,98%</t>
   </si>
   <si>
@@ -271,28 +271,76 @@
     <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>99,27%</t>
@@ -337,54 +385,6 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
@@ -436,30 +436,54 @@
     <t>Menores según si padecen diabetes en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
     <t>99,42%</t>
   </si>
   <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
     <t>1,94%</t>
   </si>
   <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>99,32%</t>
   </si>
   <si>
@@ -470,30 +494,6 @@
   </si>
   <si>
     <t>0,34%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -897,7 +897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2D8901-5D00-40FB-A885-5E74CEB9B646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8DD30E-2AB4-408A-8A24-2CED559A12A3}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1015,10 +1015,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>318</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>209560</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1030,85 +1030,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>630</v>
-      </c>
-      <c r="N4" s="7">
-        <v>404723</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2582</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2582</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1117,54 +1117,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1176,13 +1176,13 @@
         <v>127633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -1191,13 +1191,13 @@
         <v>115270</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>366</v>
@@ -1206,19 +1206,19 @@
         <v>242903</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1242,13 +1242,13 @@
         <v>732</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1257,13 +1257,13 @@
         <v>732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1278,13 +1278,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1293,13 +1293,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1308,117 +1308,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="D10" s="7">
-        <v>207824</v>
+        <v>209560</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="I10" s="7">
-        <v>208632</v>
+        <v>195163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>579</v>
+        <v>630</v>
       </c>
       <c r="N10" s="7">
-        <v>416456</v>
+        <v>404723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2582</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2582</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>683</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,123 +1427,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>148984</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>229</v>
+      </c>
+      <c r="I13" s="7">
+        <v>137817</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>460</v>
+      </c>
+      <c r="N13" s="7">
+        <v>286801</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="7">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48168</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1552,28 +1552,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,135 +1582,135 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>148984</v>
+        <v>207824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="I16" s="7">
-        <v>137817</v>
+        <v>208632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>460</v>
+        <v>579</v>
       </c>
       <c r="N16" s="7">
-        <v>286801</v>
+        <v>416456</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <v>673</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>683</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>63</v>
@@ -1719,13 +1719,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>65</v>
@@ -1737,49 +1737,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,13 +1796,13 @@
         <v>719445</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H19" s="7">
         <v>1016</v>
@@ -1817,7 +1817,7 @@
         <v>68</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2097</v>
@@ -1826,7 +1826,7 @@
         <v>1399050</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>69</v>
@@ -1838,7 +1838,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -1847,10 +1847,10 @@
         <v>3255</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>71</v>
@@ -1865,7 +1865,7 @@
         <v>72</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>73</v>
@@ -1877,7 +1877,7 @@
         <v>4671</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>74</v>
@@ -1898,13 +1898,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1913,13 +1913,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1928,13 +1928,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1955,7 +1955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD407CE-52BC-4DC9-8DCF-630D3F066375}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A03AE20-080A-4CE3-80C1-815AB391D21E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2073,55 +2073,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2130,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2145,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,54 +2175,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2234,13 +2234,13 @@
         <v>127643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>159</v>
@@ -2249,13 +2249,13 @@
         <v>114018</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>340</v>
@@ -2264,19 +2264,19 @@
         <v>241661</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2300,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,13 +2336,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2351,13 +2351,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2366,117 +2366,117 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>205560</v>
+        <v>221978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="I10" s="7">
-        <v>209510</v>
+        <v>205398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>553</v>
+        <v>638</v>
       </c>
       <c r="N10" s="7">
-        <v>415070</v>
+        <v>427376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1522</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>2312</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,123 +2485,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165128</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I13" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>495</v>
       </c>
       <c r="N13" s="7">
-        <v>47828</v>
+        <v>319967</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2610,28 +2610,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,150 +2640,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="D16" s="7">
-        <v>165128</v>
+        <v>205560</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>274</v>
+      </c>
+      <c r="I16" s="7">
+        <v>209510</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>553</v>
+      </c>
+      <c r="N16" s="7">
+        <v>415070</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="7">
-        <v>241</v>
-      </c>
-      <c r="I16" s="7">
-        <v>154839</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="7">
-        <v>495</v>
-      </c>
-      <c r="N16" s="7">
-        <v>319967</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1522</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <v>857</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>790</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2312</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>857</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>114</v>
@@ -2795,49 +2795,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,7 +2875,7 @@
         <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2080</v>
@@ -2896,7 +2896,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -2923,7 +2923,7 @@
         <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>127</v>
@@ -2956,13 +2956,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2971,13 +2971,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -2986,13 +2986,13 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3013,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B43259-2752-4BFA-8DE0-828F35F8936F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0646A5B-17EB-4B5E-A761-36EDB10784B5}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3131,55 +3131,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>132</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3188,13 +3188,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3203,13 +3203,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3218,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,54 +3233,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3292,13 +3292,13 @@
         <v>122502</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -3307,13 +3307,13 @@
         <v>109820</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>326</v>
@@ -3322,19 +3322,19 @@
         <v>232322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3343,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3358,13 +3358,13 @@
         <v>1360</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3373,13 +3373,13 @@
         <v>1360</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3394,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3409,13 +3409,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3424,72 +3424,72 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D10" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I10" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N10" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3498,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3513,13 +3513,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3528,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,108 +3543,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N13" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3653,10 +3653,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>146</v>
@@ -3668,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>147</v>
@@ -3683,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,108 +3698,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>281</v>
+      </c>
+      <c r="I16" s="7">
+        <v>207420</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7">
-        <v>259</v>
-      </c>
-      <c r="I16" s="7">
-        <v>155997</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>571</v>
+      </c>
+      <c r="N16" s="7">
+        <v>413156</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="7">
-        <v>507</v>
-      </c>
-      <c r="N16" s="7">
-        <v>322670</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3808,43 +3808,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,49 +3853,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3912,13 @@
         <v>744844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>1059</v>
@@ -3930,10 +3930,10 @@
         <v>152</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2124</v>
@@ -3945,16 +3945,16 @@
         <v>153</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3963,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3981,10 +3981,10 @@
         <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3996,10 +3996,10 @@
         <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4014,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4029,13 +4029,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4044,13 +4044,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1004-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1004-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85FAA4D0-7ED8-4372-9DA0-72A2087F511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9836AD5-8F72-41A4-8732-6941E9E1B90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1CFE9E8F-D90A-430D-B5EB-B89DE6CB74B7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE2529D8-D925-45CE-BA4C-2C8C07CD56F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="157">
   <si>
     <t>Menores según si padecen diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,424 +106,409 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>99,01%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>96,86%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>97,04%</t>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>99,32%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
     <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -612,39 +615,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -696,7 +699,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -807,13 +810,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -822,6 +818,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -886,19 +889,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8DD30E-2AB4-408A-8A24-2CED559A12A3}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7424B49-9C0C-4AE7-8BAF-04B06A1D5ED2}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1015,10 +1038,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1030,34 +1053,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1066,10 +1089,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1081,34 +1104,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1123,13 +1146,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1138,13 +1161,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1153,13 +1176,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1170,49 +1193,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>127633</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>115270</v>
+        <v>732</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>242903</v>
+        <v>732</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1221,49 +1244,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>127633</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="I8" s="7">
-        <v>732</v>
+        <v>115270</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>732</v>
+        <v>242903</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1278,13 +1301,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1293,13 +1316,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1308,13 +1331,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1325,10 +1348,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>209560</v>
+        <v>2582</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -1340,25 +1363,25 @@
         <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>195163</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>404723</v>
+        <v>2582</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>24</v>
@@ -1376,10 +1399,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D11" s="7">
-        <v>2582</v>
+        <v>209560</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1391,25 +1414,25 @@
         <v>42</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>195163</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>630</v>
       </c>
       <c r="N11" s="7">
-        <v>2582</v>
+        <v>404723</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>29</v>
@@ -1433,13 +1456,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1448,13 +1471,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1463,13 +1486,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,49 +1503,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>148984</v>
+        <v>673</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>286801</v>
+        <v>673</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,49 +1554,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>673</v>
+        <v>148984</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="N14" s="7">
-        <v>673</v>
+        <v>286801</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1588,13 +1611,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1603,13 +1626,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1618,13 +1641,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,49 +1658,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>207824</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="7">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>208632</v>
+        <v>683</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="7">
-        <v>579</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>416456</v>
+        <v>683</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,49 +1709,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>207824</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="I17" s="7">
-        <v>683</v>
+        <v>208632</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>579</v>
+      </c>
+      <c r="N17" s="7">
+        <v>416456</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>683</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,13 +1766,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1758,13 +1781,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1773,13 +1796,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,49 +1813,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1081</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>719445</v>
+        <v>3255</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1415</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I19" s="7">
-        <v>679606</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M19" s="7">
-        <v>2097</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>1399050</v>
+        <v>4671</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,43 +1864,43 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>1081</v>
       </c>
       <c r="D20" s="7">
-        <v>3255</v>
+        <v>719445</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>71</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="I20" s="7">
-        <v>1415</v>
+        <v>679606</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>2097</v>
       </c>
       <c r="N20" s="7">
-        <v>4671</v>
+        <v>1399050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>74</v>
@@ -1898,13 +1921,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1913,13 +1936,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1928,13 +1951,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1955,8 +1983,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A03AE20-080A-4CE3-80C1-815AB391D21E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E186DDBD-D7CE-40AF-9133-3D96666E4BD7}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1972,7 +2000,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2073,49 +2101,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>47828</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,49 +2152,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>47828</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2209,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2196,13 +2224,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2211,13 +2239,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,49 +2256,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>127643</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>114018</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>241661</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,49 +2307,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>127643</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>114018</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>241661</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,13 +2364,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2351,13 +2379,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2366,13 +2394,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,49 +2411,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>221978</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>205398</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>427376</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,49 +2462,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>221977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>205398</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>427376</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,16 +2516,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2506,13 +2534,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2521,13 +2549,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2566,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>165128</v>
+        <v>857</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>154839</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
-        <v>495</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>319967</v>
+        <v>857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,49 +2617,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7">
-        <v>857</v>
+        <v>165128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>154839</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>495</v>
       </c>
       <c r="N14" s="7">
-        <v>857</v>
+        <v>319967</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2674,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2661,13 +2689,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2676,13 +2704,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,46 +2721,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>205560</v>
+        <v>1522</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>209510</v>
+        <v>790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
-        <v>553</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>415070</v>
+        <v>2312</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>107</v>
@@ -2744,40 +2772,40 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="D17" s="7">
-        <v>1522</v>
+        <v>205560</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>790</v>
+        <v>209510</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>553</v>
       </c>
       <c r="N17" s="7">
-        <v>2312</v>
+        <v>415070</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>112</v>
@@ -2786,7 +2814,7 @@
         <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2829,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2816,13 +2844,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2831,13 +2859,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,49 +2876,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1063</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>745763</v>
+        <v>2379</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>790</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I19" s="7">
-        <v>706138</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>4</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3170</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2080</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1451900</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,49 +2927,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1063</v>
       </c>
       <c r="D20" s="7">
-        <v>2379</v>
+        <v>745763</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1017</v>
+      </c>
+      <c r="I20" s="7">
+        <v>706138</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2080</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1451900</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>790</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3170</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2984,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2971,13 +2999,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -2986,13 +3014,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3013,8 +3046,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0646A5B-17EB-4B5E-A761-36EDB10784B5}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FED0346-6F42-4400-8A81-49C105354C0B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3030,7 +3063,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3131,49 +3164,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,49 +3215,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3272,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3254,13 +3287,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3269,13 +3302,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,49 +3319,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>122502</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="H7" s="7">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>109820</v>
+        <v>1360</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
-        <v>326</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>232322</v>
+        <v>1360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,49 +3370,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>122502</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="I8" s="7">
-        <v>1360</v>
+        <v>109820</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="N8" s="7">
-        <v>1360</v>
+        <v>232322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3427,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3409,13 +3442,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3424,13 +3457,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,49 +3474,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>224359</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>207247</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>431606</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,49 +3525,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>224359</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>334</v>
+      </c>
+      <c r="I11" s="7">
+        <v>207247</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>666</v>
+      </c>
+      <c r="N11" s="7">
+        <v>431606</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3582,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3564,13 +3597,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3579,13 +3612,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,49 +3629,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>166673</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>259</v>
-      </c>
-      <c r="I13" s="7">
-        <v>155997</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>322670</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,49 +3680,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>166673</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>259</v>
+      </c>
+      <c r="I14" s="7">
+        <v>155997</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>322670</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3737,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3719,13 +3752,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3734,13 +3767,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,49 +3784,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>205736</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>207420</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>413156</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,49 +3835,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>205736</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>207420</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>413156</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3892,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3874,13 +3907,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3889,13 +3922,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,49 +3939,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>744844</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
-        <v>1059</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>703011</v>
+        <v>1360</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M19" s="7">
-        <v>2124</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1447855</v>
+        <v>1360</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,49 +3990,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>744844</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1059</v>
       </c>
       <c r="I20" s="7">
-        <v>1360</v>
+        <v>703011</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>2124</v>
       </c>
       <c r="N20" s="7">
-        <v>1360</v>
+        <v>1447855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4047,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4029,13 +4062,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4044,13 +4077,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1004-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1004-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9836AD5-8F72-41A4-8732-6941E9E1B90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA6DAAC-5416-4F3C-BD22-BD31BAE92373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE2529D8-D925-45CE-BA4C-2C8C07CD56F2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4814DBF1-FBB1-405D-8696-221374093EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="145">
   <si>
     <t>Menores según si padecen diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -115,7 +115,7 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,15%</t>
+    <t>3,8%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -130,7 +130,7 @@
     <t>99,37%</t>
   </si>
   <si>
-    <t>96,85%</t>
+    <t>96,2%</t>
   </si>
   <si>
     <t>99,7%</t>
@@ -139,373 +139,337 @@
     <t>98,5%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
   </si>
   <si>
     <t>99,91%</t>
@@ -920,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7424B49-9C0C-4AE7-8BAF-04B06A1D5ED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65580D0-CDD6-422F-8F19-5BD6A3DF3546}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1360,7 +1324,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1375,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1387,10 +1351,10 @@
         <v>24</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,13 +1369,13 @@
         <v>209560</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>312</v>
@@ -1423,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -1438,10 +1402,10 @@
         <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,7 +1461,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1509,13 +1473,13 @@
         <v>673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1530,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1539,13 +1503,13 @@
         <v>673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,10 +1524,10 @@
         <v>148984</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1578,7 +1542,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1590,10 +1554,10 @@
         <v>286801</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1652,7 +1616,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1679,13 +1643,13 @@
         <v>683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1694,13 +1658,13 @@
         <v>683</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,10 +1694,10 @@
         <v>208632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1745,10 +1709,10 @@
         <v>416456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1819,13 +1783,13 @@
         <v>3255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1834,13 +1798,13 @@
         <v>1415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -1849,13 +1813,13 @@
         <v>4671</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1834,13 @@
         <v>719445</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7">
         <v>1016</v>
@@ -1885,10 +1849,10 @@
         <v>679606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -1900,13 +1864,13 @@
         <v>1399050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,7 +1926,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E186DDBD-D7CE-40AF-9133-3D96666E4BD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3991C05B-2428-4EB1-BDFF-78C8B5A4D9A7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2000,7 +1964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2113,7 +2077,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2128,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2143,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2176,7 +2140,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2191,7 +2155,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2268,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2283,7 +2247,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2298,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,7 +2280,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2331,7 +2295,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2346,7 +2310,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2423,7 +2387,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2438,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2465,13 +2429,13 @@
         <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2486,7 +2450,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2516,7 +2480,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2560,7 +2524,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2572,13 +2536,13 @@
         <v>857</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2593,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2602,13 +2566,13 @@
         <v>857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,10 +2587,10 @@
         <v>165128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2641,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2653,10 +2617,10 @@
         <v>319967</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2715,7 +2679,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2727,13 +2691,13 @@
         <v>1522</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2742,13 +2706,13 @@
         <v>790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2757,13 +2721,13 @@
         <v>2312</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,10 +2742,10 @@
         <v>205560</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2793,10 +2757,10 @@
         <v>209510</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2808,13 +2772,13 @@
         <v>415070</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2846,13 @@
         <v>2379</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2897,13 +2861,13 @@
         <v>790</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2912,13 +2876,13 @@
         <v>3170</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2897,13 @@
         <v>745763</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>1017</v>
@@ -2948,10 +2912,10 @@
         <v>706138</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -2963,13 +2927,13 @@
         <v>1451900</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,7 +2989,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3046,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FED0346-6F42-4400-8A81-49C105354C0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E777D5B5-E81C-4E5D-A3DC-12158D4A7C1F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3063,7 +3027,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3176,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3191,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3206,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,7 +3188,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3239,7 +3203,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3254,7 +3218,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3331,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3346,7 +3310,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3355,13 +3319,13 @@
         <v>1360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,7 +3343,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3391,10 +3355,10 @@
         <v>109820</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3406,10 +3370,10 @@
         <v>232322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3486,7 +3450,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3501,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3516,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3498,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3549,7 +3513,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3564,7 +3528,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3623,7 +3587,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3641,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3656,7 +3620,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3671,7 +3635,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,7 +3653,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3704,7 +3668,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3719,7 +3683,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3778,7 +3742,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3796,7 +3760,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3811,7 +3775,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3826,7 +3790,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3808,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3859,7 +3823,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3874,7 +3838,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3951,7 +3915,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3960,13 +3924,13 @@
         <v>1360</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3975,13 +3939,13 @@
         <v>1360</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,7 +3963,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -4011,10 +3975,10 @@
         <v>703011</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -4026,10 +3990,10 @@
         <v>1447855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -4088,7 +4052,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1004-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1004-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA6DAAC-5416-4F3C-BD22-BD31BAE92373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8610B1A0-95FD-4585-9D72-98961DEE8D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4814DBF1-FBB1-405D-8696-221374093EDB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2EDA2B14-5235-498B-A5C1-2354CF0F87D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="144">
   <si>
     <t>Menores según si padecen diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,390 +67,393 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,53%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>99,15%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
     <t>99,32%</t>
   </si>
   <si>
@@ -460,16 +463,10 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
     <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
   </si>
   <si>
     <t>99,91%</t>
@@ -884,8 +881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65580D0-CDD6-422F-8F19-5BD6A3DF3546}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1029094-5A4B-41EB-8D99-E218EABFD1B0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1002,10 +999,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1023,79 +1020,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>137994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>428</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>291071</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1104,54 +1101,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1163,94 +1160,94 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>732</v>
+        <v>2582</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>732</v>
+        <v>2582</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D8" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="I8" s="7">
-        <v>115270</v>
+        <v>209560</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>366</v>
+        <v>630</v>
       </c>
       <c r="N8" s="7">
-        <v>242903</v>
+        <v>404723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1259,153 +1256,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2582</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2582</v>
+        <v>673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>209560</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="I11" s="7">
-        <v>195163</v>
+        <v>148984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>630</v>
+        <v>460</v>
       </c>
       <c r="N11" s="7">
-        <v>404723</v>
+        <v>286801</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1414,54 +1411,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1470,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1488,79 +1485,79 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="D14" s="7">
-        <v>148984</v>
+        <v>208632</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I14" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>460</v>
+        <v>579</v>
       </c>
       <c r="N14" s="7">
-        <v>286801</v>
+        <v>416456</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,153 +1566,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>683</v>
+        <v>3255</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>683</v>
+        <v>4671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>306</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>207824</v>
+        <v>679606</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>273</v>
+        <v>1081</v>
       </c>
       <c r="I17" s="7">
-        <v>208632</v>
+        <v>719445</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2097</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1399050</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="7">
-        <v>579</v>
-      </c>
-      <c r="N17" s="7">
-        <v>416456</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,217 +1721,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3255</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1415</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4671</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1081</v>
-      </c>
-      <c r="D20" s="7">
-        <v>719445</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I20" s="7">
-        <v>679606</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2097</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1399050</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>70</v>
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1947,8 +1788,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3991C05B-2428-4EB1-BDFF-78C8B5A4D9A7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90C8300-418D-4FBC-8384-153DE51F1D34}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1964,7 +1805,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2071,13 +1912,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2086,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2101,64 +1942,64 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N5" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,54 +2008,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2226,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2241,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2256,64 +2097,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N8" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,54 +2163,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2381,94 +2222,94 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="I11" s="7">
-        <v>205398</v>
+        <v>165128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>638</v>
+        <v>495</v>
       </c>
       <c r="N11" s="7">
-        <v>427376</v>
+        <v>319967</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,54 +2318,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2533,97 +2374,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>857</v>
+        <v>790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>857</v>
+        <v>2312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>165128</v>
+        <v>209510</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="I14" s="7">
-        <v>154839</v>
+        <v>205560</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="N14" s="7">
-        <v>319967</v>
+        <v>415070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,153 +2473,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1522</v>
+        <v>790</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>790</v>
+        <v>2379</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2312</v>
+        <v>3170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>279</v>
+        <v>1017</v>
       </c>
       <c r="D17" s="7">
-        <v>205560</v>
+        <v>706138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1063</v>
       </c>
       <c r="I17" s="7">
-        <v>209510</v>
+        <v>745763</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
-        <v>553</v>
+        <v>2080</v>
       </c>
       <c r="N17" s="7">
-        <v>415070</v>
+        <v>1451900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,217 +2628,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2379</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>790</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3170</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D20" s="7">
-        <v>745763</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I20" s="7">
-        <v>706138</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2080</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1451900</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>70</v>
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3010,8 +2695,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E777D5B5-E81C-4E5D-A3DC-12158D4A7C1F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F23AED-C9B7-46E0-85DA-A609DEF742EB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3027,7 +2712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3128,19 +2813,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3149,79 +2834,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>132347</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>380</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>280423</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,54 +2915,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3289,94 +2974,94 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>161</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>109820</v>
+        <v>224359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>326</v>
+        <v>666</v>
       </c>
       <c r="N8" s="7">
-        <v>232322</v>
+        <v>431606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,54 +3070,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3444,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3459,13 +3144,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3474,64 +3159,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N11" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,54 +3225,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3599,13 +3284,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3614,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3629,64 +3314,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N14" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,72 +3380,72 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3769,79 +3454,79 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>290</v>
+        <v>1059</v>
       </c>
       <c r="D17" s="7">
-        <v>205736</v>
+        <v>703011</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I17" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
-        <v>571</v>
+        <v>2124</v>
       </c>
       <c r="N17" s="7">
-        <v>413156</v>
+        <v>1447855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,217 +3535,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1360</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1360</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D20" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I20" s="7">
-        <v>703011</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2124</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1447855</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>70</v>
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
